--- a/GMMHMM/grupo3/X_test.xlsx
+++ b/GMMHMM/grupo3/X_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RMS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ADIm11</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -456,50 +459,52 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.213848933</v>
+        <v>1.068282978454066</v>
       </c>
       <c r="C2">
-        <v>-1.260223287</v>
+        <v>1.086827571115874</v>
       </c>
       <c r="D2">
-        <v>-0.238721744</v>
+        <v>-0.2830771045654332</v>
       </c>
       <c r="E2">
-        <v>-0.5010421829999999</v>
+        <v>-0.5775421200673674</v>
       </c>
       <c r="F2">
-        <v>-0.128168838</v>
+        <v>0.1077360276293435</v>
       </c>
       <c r="G2">
-        <v>0.606900394</v>
+        <v>0.1041029176906046</v>
       </c>
       <c r="H2">
-        <v>0.248181286</v>
+        <v>0.1923087798717137</v>
       </c>
       <c r="I2">
-        <v>-0.068352202</v>
+        <v>0.2894757767297265</v>
       </c>
       <c r="J2">
-        <v>-0.6534519879999999</v>
+        <v>0.5166036693310342</v>
       </c>
       <c r="K2">
-        <v>0.300338616</v>
+        <v>0.5516134326604308</v>
       </c>
       <c r="L2">
-        <v>0.7914288490000001</v>
+        <v>-0.5481823527185627</v>
       </c>
       <c r="M2">
-        <v>0.8097702940000001</v>
+        <v>-0.4214390128295122</v>
       </c>
       <c r="N2">
-        <v>1.06577869</v>
+        <v>-0.2891866838178406</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -507,93 +512,93 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>0.452139402</v>
+        <v>-0.7170444859158436</v>
       </c>
       <c r="C3">
-        <v>0.535551136</v>
+        <v>-0.9626627575504668</v>
       </c>
       <c r="D3">
-        <v>0.25977125</v>
+        <v>-1.326370565969052</v>
       </c>
       <c r="E3">
-        <v>-0.209464127</v>
+        <v>-0.3508826171547983</v>
       </c>
       <c r="F3">
-        <v>0.553605938</v>
+        <v>-0.1116572877339215</v>
       </c>
       <c r="G3">
-        <v>-0.053446825</v>
+        <v>0.3025477387642772</v>
       </c>
       <c r="H3">
-        <v>0.46669286</v>
+        <v>0.02227960656881003</v>
       </c>
       <c r="I3">
-        <v>1.000748395</v>
+        <v>-0.8292441429574355</v>
       </c>
       <c r="J3">
-        <v>0.385696359</v>
+        <v>-0.3231513895542691</v>
       </c>
       <c r="K3">
-        <v>0.256291393</v>
+        <v>-0.6051667266971232</v>
       </c>
       <c r="L3">
-        <v>0.333589821</v>
+        <v>0.4240250088644789</v>
       </c>
       <c r="M3">
-        <v>0.20943043</v>
+        <v>0.5689230922157072</v>
       </c>
       <c r="N3">
-        <v>0.293598999</v>
+        <v>0.5941888100937924</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>-1.080224856</v>
+        <v>1.083936345210007</v>
       </c>
       <c r="C4">
-        <v>-1.225119853</v>
+        <v>1.093264700238166</v>
       </c>
       <c r="D4">
-        <v>-1.630184268</v>
+        <v>0.1483705827004671</v>
       </c>
       <c r="E4">
-        <v>0.189721362</v>
+        <v>-0.2229674175134839</v>
       </c>
       <c r="F4">
-        <v>1.016600571</v>
+        <v>-0.4549054893864045</v>
       </c>
       <c r="G4">
-        <v>1.684334148</v>
+        <v>0.213315262424153</v>
       </c>
       <c r="H4">
-        <v>1.561966372</v>
+        <v>-0.5341985581575719</v>
       </c>
       <c r="I4">
-        <v>1.075468504</v>
+        <v>-0.0575880076469479</v>
       </c>
       <c r="J4">
-        <v>1.075964945</v>
+        <v>-0.3098117486188885</v>
       </c>
       <c r="K4">
-        <v>1.297676939</v>
+        <v>-0.9285690794037499</v>
       </c>
       <c r="L4">
-        <v>0.998066969</v>
+        <v>-1.478019162058223</v>
       </c>
       <c r="M4">
-        <v>0.832450895</v>
+        <v>-1.50507127255204</v>
       </c>
       <c r="N4">
-        <v>0.7309068520000001</v>
+        <v>-1.83833156063562</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -601,140 +606,140 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.080592808</v>
+        <v>-0.9950186759999999</v>
       </c>
       <c r="C5">
-        <v>0.154079561</v>
+        <v>-1.14275891</v>
       </c>
       <c r="D5">
-        <v>0.950204087</v>
+        <v>-0.8379565390000001</v>
       </c>
       <c r="E5">
-        <v>0.5333746429999999</v>
+        <v>-1.356096241</v>
       </c>
       <c r="F5">
-        <v>0.669714496</v>
+        <v>-1.482855771</v>
       </c>
       <c r="G5">
-        <v>1.32170149</v>
+        <v>-0.116152378</v>
       </c>
       <c r="H5">
-        <v>0.394812815</v>
+        <v>-1.960741118</v>
       </c>
       <c r="I5">
-        <v>0.060439413</v>
+        <v>-2.808609729</v>
       </c>
       <c r="J5">
-        <v>0.590968691</v>
+        <v>-1.937638123</v>
       </c>
       <c r="K5">
-        <v>0.584491591</v>
+        <v>-2.478579661</v>
       </c>
       <c r="L5">
-        <v>0.7292046520000001</v>
+        <v>-1.538677731</v>
       </c>
       <c r="M5">
-        <v>0.7106371220000001</v>
+        <v>-0.954723074</v>
       </c>
       <c r="N5">
-        <v>0.752660914</v>
+        <v>-0.998195754</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.4530453820000001</v>
+        <v>0.078267607</v>
       </c>
       <c r="C6">
-        <v>0.5533775329999999</v>
+        <v>0.147016056</v>
       </c>
       <c r="D6">
-        <v>-0.017240231</v>
+        <v>-0.099193434</v>
       </c>
       <c r="E6">
-        <v>-0.389027078</v>
+        <v>-0.9932849579999999</v>
       </c>
       <c r="F6">
-        <v>0.242216412</v>
+        <v>-0.36166605</v>
       </c>
       <c r="G6">
-        <v>-0.222609288</v>
+        <v>0.204833342</v>
       </c>
       <c r="H6">
-        <v>0.344838761</v>
+        <v>-0.837582409</v>
       </c>
       <c r="I6">
-        <v>0.7974024390000001</v>
+        <v>-0.6419876839999999</v>
       </c>
       <c r="J6">
-        <v>0.19036583</v>
+        <v>-0.254815942</v>
       </c>
       <c r="K6">
-        <v>-0.01238466</v>
+        <v>-0.379259574</v>
       </c>
       <c r="L6">
-        <v>-0.306273377</v>
+        <v>-1.062085395</v>
       </c>
       <c r="M6">
-        <v>-0.20150938</v>
+        <v>-1.581943415</v>
       </c>
       <c r="N6">
-        <v>0.049260658</v>
+        <v>-1.785023628</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.042198087</v>
+        <v>-1.113243525</v>
       </c>
       <c r="C7">
-        <v>-1.196787822</v>
+        <v>-1.218439747</v>
       </c>
       <c r="D7">
-        <v>-0.4783288429999999</v>
+        <v>-0.46169408</v>
       </c>
       <c r="E7">
-        <v>-0.29351785</v>
+        <v>-0.506681916</v>
       </c>
       <c r="F7">
-        <v>0.07789871299999999</v>
+        <v>-0.141881335</v>
       </c>
       <c r="G7">
-        <v>0.589451356</v>
+        <v>0.22744881</v>
       </c>
       <c r="H7">
-        <v>-0.249145236</v>
+        <v>-0.997138382</v>
       </c>
       <c r="I7">
-        <v>-0.273429519</v>
+        <v>-1.313530996</v>
       </c>
       <c r="J7">
-        <v>-0.084926801</v>
+        <v>-0.829717461</v>
       </c>
       <c r="K7">
-        <v>-0.34367782</v>
+        <v>-0.556270676</v>
       </c>
       <c r="L7">
-        <v>0.118776451</v>
+        <v>-0.016803582</v>
       </c>
       <c r="M7">
-        <v>0.012452516</v>
+        <v>-0.136466835</v>
       </c>
       <c r="N7">
-        <v>0.271643513</v>
+        <v>0.219988164</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -742,93 +747,93 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>0.09273416400000001</v>
+        <v>-1.270561510282354</v>
       </c>
       <c r="C8">
-        <v>0.167730306</v>
+        <v>-1.123748824026904</v>
       </c>
       <c r="D8">
-        <v>1.336888192</v>
+        <v>-0.09099933402576334</v>
       </c>
       <c r="E8">
-        <v>1.37678494</v>
+        <v>-0.04498554308108361</v>
       </c>
       <c r="F8">
-        <v>1.727839705</v>
+        <v>0.1352646616835821</v>
       </c>
       <c r="G8">
-        <v>1.780657985</v>
+        <v>0.6061199888280842</v>
       </c>
       <c r="H8">
-        <v>1.71084308</v>
+        <v>0.5865008059729586</v>
       </c>
       <c r="I8">
-        <v>1.737646294</v>
+        <v>0.1804280281973176</v>
       </c>
       <c r="J8">
-        <v>1.672063467</v>
+        <v>-0.6615487182621481</v>
       </c>
       <c r="K8">
-        <v>2.101930869</v>
+        <v>0.4701499509641796</v>
       </c>
       <c r="L8">
-        <v>1.598622792</v>
+        <v>1.121854132091655</v>
       </c>
       <c r="M8">
-        <v>1.344010916</v>
+        <v>1.101580566908483</v>
       </c>
       <c r="N8">
-        <v>1.350692732</v>
+        <v>1.146047200980204</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08205686800000001</v>
+        <v>-1.162809267</v>
       </c>
       <c r="C9">
-        <v>0.147578526</v>
+        <v>-1.230742598</v>
       </c>
       <c r="D9">
-        <v>-0.580912604</v>
+        <v>-0.481548895</v>
       </c>
       <c r="E9">
-        <v>-1.665500548</v>
+        <v>-0.48584958</v>
       </c>
       <c r="F9">
-        <v>-1.132920207</v>
+        <v>-0.43719234</v>
       </c>
       <c r="G9">
-        <v>-0.025191746</v>
+        <v>0.114115978</v>
       </c>
       <c r="H9">
-        <v>-0.426588206</v>
+        <v>-0.77417708</v>
       </c>
       <c r="I9">
-        <v>-0.30454745</v>
+        <v>-1.367703306</v>
       </c>
       <c r="J9">
-        <v>-0.236008486</v>
+        <v>-0.7770090820000001</v>
       </c>
       <c r="K9">
-        <v>-0.6369937170000001</v>
+        <v>-0.805050077</v>
       </c>
       <c r="L9">
-        <v>-1.884549688</v>
+        <v>-0.044871051</v>
       </c>
       <c r="M9">
-        <v>-2.252556061</v>
+        <v>0.152162831</v>
       </c>
       <c r="N9">
-        <v>-2.76967735</v>
+        <v>0.264317159</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -836,93 +841,93 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>-0.919401809</v>
+        <v>-0.8758349393820211</v>
       </c>
       <c r="C10">
-        <v>-0.9502995000000001</v>
+        <v>-0.7819755033952668</v>
       </c>
       <c r="D10">
-        <v>0.198061398</v>
+        <v>-0.1136147965221389</v>
       </c>
       <c r="E10">
-        <v>1.090531976</v>
+        <v>-0.185492660811697</v>
       </c>
       <c r="F10">
-        <v>1.591912741</v>
+        <v>-0.0781696765984117</v>
       </c>
       <c r="G10">
-        <v>1.419771212</v>
+        <v>-0.7311395274105609</v>
       </c>
       <c r="H10">
-        <v>1.685263614</v>
+        <v>-0.7733672661317547</v>
       </c>
       <c r="I10">
-        <v>1.31493522</v>
+        <v>0.2632672729876283</v>
       </c>
       <c r="J10">
-        <v>1.427681665</v>
+        <v>-0.09239871205352695</v>
       </c>
       <c r="K10">
-        <v>1.688971273</v>
+        <v>0.04069870965258254</v>
       </c>
       <c r="L10">
-        <v>1.432602503</v>
+        <v>-0.3480279619857963</v>
       </c>
       <c r="M10">
-        <v>1.113826339</v>
+        <v>-0.1790791255580886</v>
       </c>
       <c r="N10">
-        <v>0.896996784</v>
+        <v>0.1553656948685382</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>-0.904154899</v>
+        <v>-0.554723695977998</v>
       </c>
       <c r="C11">
-        <v>-0.994189992</v>
+        <v>-0.7348956677261104</v>
       </c>
       <c r="D11">
-        <v>-0.6108602870000001</v>
+        <v>-2.200403713486279</v>
       </c>
       <c r="E11">
-        <v>-1.097473341</v>
+        <v>-0.7021511342036996</v>
       </c>
       <c r="F11">
-        <v>-0.621446199</v>
+        <v>-1.10566236468863</v>
       </c>
       <c r="G11">
-        <v>-0.5322143</v>
+        <v>-1.308502522194651</v>
       </c>
       <c r="H11">
-        <v>-1.051977434</v>
+        <v>-0.4420220964019494</v>
       </c>
       <c r="I11">
-        <v>-0.558942678</v>
+        <v>-0.8910558932634112</v>
       </c>
       <c r="J11">
-        <v>-0.362767975</v>
+        <v>-0.3157577963177772</v>
       </c>
       <c r="K11">
-        <v>0.07955117</v>
+        <v>0.03474938647192169</v>
       </c>
       <c r="L11">
-        <v>-0.356056375</v>
+        <v>-0.03916370126099611</v>
       </c>
       <c r="M11">
-        <v>-0.323068986</v>
+        <v>0.03075681492401491</v>
       </c>
       <c r="N11">
-        <v>-0.116068191</v>
+        <v>0.1129110901943352</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -930,46 +935,46 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.9819434020000001</v>
+        <v>0.08650412199999999</v>
       </c>
       <c r="C12">
-        <v>-1.027168868</v>
+        <v>0.16076415</v>
       </c>
       <c r="D12">
-        <v>-0.391420759</v>
+        <v>1.287529653</v>
       </c>
       <c r="E12">
-        <v>-1.071957494</v>
+        <v>1.458507674</v>
       </c>
       <c r="F12">
-        <v>-1.015058936</v>
+        <v>1.708264452</v>
       </c>
       <c r="G12">
-        <v>-1.251488744</v>
+        <v>1.737302749</v>
       </c>
       <c r="H12">
-        <v>-1.889056123</v>
+        <v>1.454654867</v>
       </c>
       <c r="I12">
-        <v>-0.649593132</v>
+        <v>1.685926169</v>
       </c>
       <c r="J12">
-        <v>-0.321722455</v>
+        <v>1.198936477</v>
       </c>
       <c r="K12">
-        <v>-0.310259495</v>
+        <v>1.009485194</v>
       </c>
       <c r="L12">
-        <v>-0.362302266</v>
+        <v>0.6228660539999999</v>
       </c>
       <c r="M12">
-        <v>-0.24811692</v>
+        <v>0.391809069</v>
       </c>
       <c r="N12">
-        <v>0.142904433</v>
+        <v>0.180105296</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -977,284 +982,284 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.08526797800000001</v>
+        <v>-0.9819434020000001</v>
       </c>
       <c r="C13">
-        <v>0.159124385</v>
+        <v>-1.027168868</v>
       </c>
       <c r="D13">
-        <v>1.096342976</v>
+        <v>-0.391420759</v>
       </c>
       <c r="E13">
-        <v>0.7303750640000001</v>
+        <v>-1.071957494</v>
       </c>
       <c r="F13">
-        <v>0.8152742159999999</v>
+        <v>-1.015058936</v>
       </c>
       <c r="G13">
-        <v>0.93322467</v>
+        <v>-1.251488744</v>
       </c>
       <c r="H13">
-        <v>0.305302448</v>
+        <v>-1.889056123</v>
       </c>
       <c r="I13">
-        <v>0.337106184</v>
+        <v>-0.649593132</v>
       </c>
       <c r="J13">
-        <v>0.368742873</v>
+        <v>-0.321722455</v>
       </c>
       <c r="K13">
-        <v>0.723300948</v>
+        <v>-0.310259495</v>
       </c>
       <c r="L13">
-        <v>0.840594816</v>
+        <v>-0.362302266</v>
       </c>
       <c r="M13">
-        <v>0.80725357</v>
+        <v>-0.24811692</v>
       </c>
       <c r="N13">
-        <v>0.943935555</v>
+        <v>0.142904433</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>-1.005338656</v>
+        <v>-0.3543593665836199</v>
       </c>
       <c r="C14">
-        <v>-1.186736776</v>
+        <v>-0.607770836055068</v>
       </c>
       <c r="D14">
-        <v>-0.781800568</v>
+        <v>-1.023579362476468</v>
       </c>
       <c r="E14">
-        <v>-0.344946589</v>
+        <v>-0.955669614345772</v>
       </c>
       <c r="F14">
-        <v>-0.08112894700000001</v>
+        <v>-1.000502683286009</v>
       </c>
       <c r="G14">
-        <v>0.689557905</v>
+        <v>-1.440570144316475</v>
       </c>
       <c r="H14">
-        <v>-0.11757962</v>
+        <v>-0.6574608486657882</v>
       </c>
       <c r="I14">
-        <v>-0.453053243</v>
+        <v>-0.3437044833041243</v>
       </c>
       <c r="J14">
-        <v>-0.081728176</v>
+        <v>-0.3136140931433612</v>
       </c>
       <c r="K14">
-        <v>-0.318629317</v>
+        <v>0.1547769421110219</v>
       </c>
       <c r="L14">
-        <v>0.019810485</v>
+        <v>0.2203860173098343</v>
       </c>
       <c r="M14">
-        <v>0.175715326</v>
+        <v>0.1150587133144156</v>
       </c>
       <c r="N14">
-        <v>0.403158154</v>
+        <v>-0.0393656080207815</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.08004541599999999</v>
+        <v>-0.898339942</v>
       </c>
       <c r="C15">
-        <v>0.153090252</v>
+        <v>-0.9166695420000001</v>
       </c>
       <c r="D15">
-        <v>1.080132873</v>
+        <v>-0.124501255</v>
       </c>
       <c r="E15">
-        <v>0.8147941890000001</v>
+        <v>0.389349156</v>
       </c>
       <c r="F15">
-        <v>0.434401817</v>
+        <v>1.017939856</v>
       </c>
       <c r="G15">
-        <v>0.335642876</v>
+        <v>1.065573911</v>
       </c>
       <c r="H15">
-        <v>-0.464408387</v>
+        <v>1.109928244</v>
       </c>
       <c r="I15">
-        <v>-1.079728083</v>
+        <v>0.875583775</v>
       </c>
       <c r="J15">
-        <v>-0.347979497</v>
+        <v>0.875780095</v>
       </c>
       <c r="K15">
-        <v>-0.425076511</v>
+        <v>1.330532029</v>
       </c>
       <c r="L15">
-        <v>-0.5974756379999999</v>
+        <v>1.080667858</v>
       </c>
       <c r="M15">
-        <v>0.09324355199999999</v>
+        <v>0.87872014</v>
       </c>
       <c r="N15">
-        <v>0.022549287</v>
+        <v>0.4082125</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B16">
-        <v>0.079846809</v>
+        <v>1.098824281425039</v>
       </c>
       <c r="C16">
-        <v>0.153009772</v>
+        <v>1.124544984094857</v>
       </c>
       <c r="D16">
-        <v>0.9862225490000001</v>
+        <v>1.730050599012491</v>
       </c>
       <c r="E16">
-        <v>0.638104751</v>
+        <v>1.85323807668174</v>
       </c>
       <c r="F16">
-        <v>0.324303721</v>
+        <v>2.19314676580624</v>
       </c>
       <c r="G16">
-        <v>1.212977673</v>
+        <v>2.024663755796917</v>
       </c>
       <c r="H16">
-        <v>-0.018508783</v>
+        <v>2.554541131790494</v>
       </c>
       <c r="I16">
-        <v>-0.406158339</v>
+        <v>2.318109608543673</v>
       </c>
       <c r="J16">
-        <v>0.919169809</v>
+        <v>2.100052046017395</v>
       </c>
       <c r="K16">
-        <v>0.291060984</v>
+        <v>2.044557233732532</v>
       </c>
       <c r="L16">
-        <v>0.399475769</v>
+        <v>1.594573606845447</v>
       </c>
       <c r="M16">
-        <v>0.461708297</v>
+        <v>1.329427998478601</v>
       </c>
       <c r="N16">
-        <v>0.609240468</v>
+        <v>1.092029141150236</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>0.08404805900000001</v>
+        <v>-0.641595727756713</v>
       </c>
       <c r="C17">
-        <v>0.158263319</v>
+        <v>-0.5590221552278335</v>
       </c>
       <c r="D17">
-        <v>1.294199582</v>
+        <v>0.3519448183223575</v>
       </c>
       <c r="E17">
-        <v>1.365673385</v>
+        <v>1.25896503686056</v>
       </c>
       <c r="F17">
-        <v>1.622505078</v>
+        <v>1.622979822911583</v>
       </c>
       <c r="G17">
-        <v>1.755307135</v>
+        <v>0.5815436039527361</v>
       </c>
       <c r="H17">
-        <v>1.446623332</v>
+        <v>1.597246989459927</v>
       </c>
       <c r="I17">
-        <v>1.6440003</v>
+        <v>1.191527893722771</v>
       </c>
       <c r="J17">
-        <v>1.495672263</v>
+        <v>1.227082251603201</v>
       </c>
       <c r="K17">
-        <v>1.041723686</v>
+        <v>1.437210920502419</v>
       </c>
       <c r="L17">
-        <v>0.385273084</v>
+        <v>1.106532648937356</v>
       </c>
       <c r="M17">
-        <v>0.241502357</v>
+        <v>0.6944463772260019</v>
       </c>
       <c r="N17">
-        <v>0.190681953</v>
+        <v>0.6524015959985536</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>-1.019039163</v>
+        <v>0.080592808</v>
       </c>
       <c r="C18">
-        <v>-1.055915375</v>
+        <v>0.154079561</v>
       </c>
       <c r="D18">
-        <v>-0.564856809</v>
+        <v>0.950204087</v>
       </c>
       <c r="E18">
-        <v>-0.913885845</v>
+        <v>0.5333746429999999</v>
       </c>
       <c r="F18">
-        <v>-0.61782588</v>
+        <v>0.669714496</v>
       </c>
       <c r="G18">
-        <v>-1.002576864</v>
+        <v>1.32170149</v>
       </c>
       <c r="H18">
-        <v>-0.645849751</v>
+        <v>0.394812815</v>
       </c>
       <c r="I18">
-        <v>-0.107990442</v>
+        <v>0.060439413</v>
       </c>
       <c r="J18">
-        <v>-0.091614968</v>
+        <v>0.590968691</v>
       </c>
       <c r="K18">
-        <v>0.11886468</v>
+        <v>0.584491591</v>
       </c>
       <c r="L18">
-        <v>-0.216443827</v>
+        <v>0.7292046520000001</v>
       </c>
       <c r="M18">
-        <v>-0.4546584320000001</v>
+        <v>0.7106371220000001</v>
       </c>
       <c r="N18">
-        <v>-0.1306233</v>
+        <v>0.752660914</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
